--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time_Join2.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time_Join2.xlsx
@@ -25,13 +25,13 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>KdRXbdcP670,KdRXbdcP670,KdRXbdcP670,yxZatelPeNo,Q-8I-uMUMYA,QbgH8_CzBOg,Q-8I-uMUMYA,6g6ZsyaJs8Q,Q-8I-uMUMYA,PMk6cys0bhE,Q-8I-uMUMYA,QAjt9liE_a4,Q-8I-uMUMYA,PMk6cys0bhE,Q-8I-uMUMYA,zmvPgBfIQns,zmvPgBfIQns,zmvPgBfIQns,hwyW7oCsvBI,Q-8I-uMUMYA,xBB1aAMS2i4,Q-8I-uMUMYA,sJf0tb4QeLQ,Q-8I-uMUMYA,PYYAjEfu7dM,Q-8I-uMUMYA,6sXgJSQJxJo,Q-8I-uMUMYA,Ewyhf2C7Z50,Q-8I-uMUMYA,8tOv2M9OgsQ,8tOv2M9OgsQ,8tOv2M9OgsQ,mFLEsNksk7s,Q-8I-uMUMYA,mpmsrqhPod0,Q-8I-uMUMYA,45l1u6Hu0u8,Q-8I-uMUMYA,dRx0YHaeQso,Q-8I-uMUMYA,sCynyywldzA,Q-8I-uMUMYA,8suYePtSmVk,Q-8I-uMUMYA,b5W6WyOnkY0,b5W6WyOnkY0,b5W6WyOnkY0,sJf0tb4QeLQ,Q-8I-uMUMYA,WNSsiN814T4,Q-8I-uMUMYA,ULzMDhOYXDI,Q-8I-uMUMYA,C7AJVQLst1o,Q-8I-uMUMYA,UbIX71sXnSY,Q-8I-uMUMYA,NorTlAni4pc,Q-8I-uMUMYA,USIYNJg2qSw,USIYNJg2qSw,USIYNJg2qSw,EZMgSCfbiGs,Q-8I-uMUMYA,dMYF3M820Vg,Q-8I-uMUMYA,xjEWNSgWqBo,Q-8I-uMUMYA,jZDogzNBKkg,Q-8I-uMUMYA,mXMXTszg_XE,Q-8I-uMUMYA,7iuvbDJa20Q,Q-8I-uMUMYA,67KX1u7gfIo,67KX1u7gfIo,67KX1u7gfIo,qekbyVCJsIk,Q-8I-uMUMYA,J34v_nNRU7c,Q-8I-uMUMYA,0ArfVe66RNE,Q-8I-uMUMYA,6aZHsfF1kVw,Q-8I-uMUMYA,P4zf2_zK2uQ,Q-8I-uMUMYA,s6PAUQJOaWc,Q-8I-uMUMYA,WKGIqnMJwL8,WKGIqnMJwL8,WKGIqnMJwL8,DniD4L9cACc,Q-8I-uMUMYA,cvsjmYm1mAE,Q-8I-uMUMYA,XjxvYViuRQs,Q-8I-uMUMYA,jP5RIermNno,Q-8I-uMUMYA,xqiQ_4a_Xio,Q-8I-uMUMYA,yB6vJCGJcrU,Q-8I-uMUMYA,H2KD1RMaZFQ,H2KD1RMaZFQ,H2KD1RMaZFQ,jdwoLGhYtn0,Q-8I-uMUMYA,NohfbahOqrM,Q-8I-uMUMYA,QIf2cHz5W4g,Q-8I-uMUMYA,TKZnf8bPjbI,Q-8I-uMUMYA,UBrFC9e5zlo,Q-8I-uMUMYA,FdOY6qHAkDs,Q-8I-uMUMYA,BaSWNWnojdU,BaSWNWnojdU,BaSWNWnojdU,nj83zeeJXQo,Q-8I-uMUMYA,J6MDJ1fQnPQ,Q-8I-uMUMYA,gKvIVk9KP2c,Q-8I-uMUMYA,XrprY3B2uPQ,Q-8I-uMUMYA,iIdpeR6GxTo,Q-8I-uMUMYA,jP5RIermNno,Q-8I-uMUMYA,_35G9xjZSz0,_35G9xjZSz0,_35G9xjZSz0,UuN4OgYiJQQ,Q-8I-uMUMYA,NV0Lln1fFsw,Q-8I-uMUMYA,bJvH3EQdtBU,Q-8I-uMUMYA,V2yVCi7fzsg,Q-8I-uMUMYA,atTtYnTJvZo,Q-8I-uMUMYA,qLZBEykyoMs,Q-8I-uMUMYA,aMxhCOn1xZs,aMxhCOn1xZs,aMxhCOn1xZs,58E4HGVFuzg,Q-8I-uMUMYA,robgEk58nx4,Q-8I-uMUMYA,MDjYkqySWDk,Q-8I-uMUMYA,q2FLGLlrCEc,Q-8I-uMUMYA,udKPq5M1WF4,Q-8I-uMUMYA,t1Sa9YL7GUQ,Q-8I-uMUMYA,OdndAvGx2AI,OdndAvGx2AI,OdndAvGx2AI,tQ3iQ8_Qb8A,Q-8I-uMUMYA,N8wLN1kVbs0,Q-8I-uMUMYA,bXJsYZRGyzc,Q-8I-uMUMYA,08WUwSic5MY,Q-8I-uMUMYA,cfwSFfrDQN0,Q-8I-uMUMYA,6KVvJ7qSBvM,Q-8I-uMUMYA,ImoHd_JGqN8,ImoHd_JGqN8,ImoHd_JGqN8,bJ87T0krCzI,Q-8I-uMUMYA,5DVopo30jf8,Q-8I-uMUMYA,SbLquMQv4Sg,Q-8I-uMUMYA,PoKixTm1NZc,Q-8I-uMUMYA,RnonPD87HxI,Q-8I-uMUMYA,WRbYdBlCTAQ,Q-8I-uMUMYA,1idPrF17UP0,1idPrF17UP0,1idPrF17UP0,HusEMfhYcA0,Q-8I-uMUMYA,bPutNPlyoqo,Q-8I-uMUMYA,pruDyt__jYs,Q-8I-uMUMYA,EZMgSCfbiGs,Q-8I-uMUMYA,k0mt1Uxqu4U,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,2rcJOKj3uRM,2rcJOKj3uRM,2rcJOKj3uRM,n9adVSbsvy4,Q-8I-uMUMYA,GgxTyeBgUrw,Q-8I-uMUMYA,8jmOuLksBJ0,Q-8I-uMUMYA,a5tAiFe2C0w,Q-8I-uMUMYA,mYdQSDPbaoE,Q-8I-uMUMYA,HqEGHcP413w,Q-8I-uMUMYA,mjdwFZ9EdL0,mjdwFZ9EdL0,mjdwFZ9EdL0,COlIItbPopY,Q-8I-uMUMYA,dYcjdwMI4lk,Q-8I-uMUMYA,Jm4F0NBLUZY,Q-8I-uMUMYA,SjHPYpxdcXo,Q-8I-uMUMYA,zdicxqAR9Do,Q-8I-uMUMYA,biRQ3PONAsY,Q-8I-uMUMYA,mRD6BmehmdY,mRD6BmehmdY,mRD6BmehmdY,wro74ypSW60,Q-8I-uMUMYA,EVZmDLBbQiY,Q-8I-uMUMYA,mZ2W1yKlANI,Q-8I-uMUMYA,pptfIJDVDeI,Q-8I-uMUMYA,JmTknWGnqM4,Q-8I-uMUMYA,_2LZo6dC6u8,Q-8I-uMUMYA,ZFf0M63bCwk,ZFf0M63bCwk,ZFf0M63bCwk,M7ROOKqquqs,Q-8I-uMUMYA,UbIX71sXnSY,Q-8I-uMUMYA,uWefyAigpqg,Q-8I-uMUMYA,j4pZ3fbVnyA,Q-8I-uMUMYA,WqDRKP8XFh8,Q-8I-uMUMYA,UbIX71sXnSY,Q-8I-uMUMYA,AJxVh7pLuZM,AJxVh7pLuZM,AJxVh7pLuZM,ma3IZcf5C3Q,Q-8I-uMUMYA,We_B3W2hn6U,Q-8I-uMUMYA,qxSzWseraQQ,Q-8I-uMUMYA,mYdQSDPbaoE,Q-8I-uMUMYA,wqAziYhui4I,Q-8I-uMUMYA,k1up2KLkuaM,Q-8I-uMUMYA,3dvvOo9u7PY,3dvvOo9u7PY,3dvvOo9u7PY,xDSbzVXrNxg,Q-8I-uMUMYA,ReoJnVK_IPU,Q-8I-uMUMYA,FtX0SOorrFI,Q-8I-uMUMYA,WB2jYe9y_Lk,Q-8I-uMUMYA,Qn1EZXHfBM0,Q-8I-uMUMYA,9MAPOxdsUAw,Q-8I-uMUMYA,fkJjMNzKq90,fkJjMNzKq90,fkJjMNzKq90,1RoZgb6vyBU,Q-8I-uMUMYA,1RoZgb6vyBU,Q-8I-uMUMYA,kyf3kITGk7o,Q-8I-uMUMYA,jgq74EEYOHc,Q-8I-uMUMYA,R6i6lAqr6YY,Q-8I-uMUMYA,rpduz0gCxuY,Q-8I-uMUMYA,xMt7OxvItgo,xMt7OxvItgo,xMt7OxvItgo,po3SMpTUHow,Q-8I-uMUMYA,prSrldgnIJE,Q-8I-uMUMYA,cidzH5XDfZU,Q-8I-uMUMYA,bBSmCgnYCUM,Q-8I-uMUMYA,of5VbXs4mHY,Q-8I-uMUMYA,Z0czr5G9r0s,Q-8I-uMUMYA,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,UBrFC9e5zlo,Q-8I-uMUMYA,tfzC9AvItfg,Q-8I-uMUMYA,2hZkrT8_z1w,Q-8I-uMUMYA,6pTV5xoPh3s,Q-8I-uMUMYA,ZEd4FcTaOBo,Q-8I-uMUMYA,lgxq9KNDuPQ,Q-8I-uMUMYA,5QhC0EVFVUc,5QhC0EVFVUc,5QhC0EVFVUc,HmAJGBgdBYE,Q-8I-uMUMYA,sZiISWrbCks,Q-8I-uMUMYA,dgwizCIccrY,Q-8I-uMUMYA,X7MUPbGm3A8,Q-8I-uMUMYA,wXPMglvtwJE,Q-8I-uMUMYA,C7AJVQLst1o,Q-8I-uMUMYA,v_0hNTyxzq8,v_0hNTyxzq8,v_0hNTyxzq8,mdNyTqKmEMs,Q-8I-uMUMYA,QAjt9liE_a4,Q-8I-uMUMYA,k2Gq3EgyVlU,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,4rOtQmuq5iE,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,6g6ZsyaJs8Q,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,F0uYZ4uI47w,Q-8I-uMUMYA,ZAtYUq0JR8Q,Q-8I-uMUMYA,TOb1h3hisMo,Q-8I-uMUMYA,ZAtYUq0JR8Q,Q-8I-uMUMYA,UbIX71sXnSY,UbIX71sXnSY,UbIX71sXnSY,Ip1lXhLbvfU,Q-8I-uMUMYA,N_Cn_DbIyzw,Q-8I-uMUMYA,MNCyjl4jaxY,Q-8I-uMUMYA,dKulgkMlEqY,Q-8I-uMUMYA,N3zGec15w58,Q-8I-uMUMYA,qeFJHjqPTsE,Q-8I-uMUMYA,KFlWdjC9rrg,KFlWdjC9rrg,KFlWdjC9rrg,6g6ZsyaJs8Q,Q-8I-uMUMYA,rl6XwyhuAVk,Q-8I-uMUMYA,Vi02nG18UxU,Q-8I-uMUMYA,KFlWdjC9rrg,Q-8I-uMUMYA,KFlWdjC9rrg,Q-8I-uMUMYA,loL9z89lf28,Q-8I-uMUMYA,yJuv9Eozp5A,yJuv9Eozp5A,yJuv9Eozp5A,i7zdY_p_MOk,Q-8I-uMUMYA,v1tjz6l7TGQ,Q-8I-uMUMYA,robgEk58nx4,Q-8I-uMUMYA,EmxRrMXp3UY,Q-8I-uMUMYA,nerAX4VUzNk,Q-8I-uMUMYA,OMs15LULCBc,Q-8I-uMUMYA,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,aJlmQ6FxG_I,Q-8I-uMUMYA,0D8AwsGlZTo,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,UBrFC9e5zlo,Q-8I-uMUMYA,1pJQnCkvV8c,Q-8I-uMUMYA,29oFPqndnQY,Q-8I-uMUMYA,jWK27FdHDnw,jWK27FdHDnw,jWK27FdHDnw,2z86k2Xm3Qc,Q-8I-uMUMYA,ppxo0ZUS4Hw,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,dfxnDL_grI4,Q-8I-uMUMYA,LgGiMKoCxlQ,Q-8I-uMUMYA,w84rXm6qHY0,Q-8I-uMUMYA,ADgBtBV3dIw,ADgBtBV3dIw,ADgBtBV3dIw,U0ErXeWmrL0,Q-8I-uMUMYA,ytOEchLsaeA,Q-8I-uMUMYA,92ySI5BWi2A,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,9ahkCAA5m1s,Q-8I-uMUMYA,FxhLqxciTxo,Q-8I-uMUMYA,ECjMB_WXJMw,ECjMB_WXJMw,ECjMB_WXJMw,SLiiU9eQxxc,Q-8I-uMUMYA,OPqBqioxLBI,Q-8I-uMUMYA,R6i6lAqr6YY,Q-8I-uMUMYA,USIYNJg2qSw,Q-8I-uMUMYA,JRhFqrIDklA,Q-8I-uMUMYA,cHlx3vmSIVY,Q-8I-uMUMYA,JGZbS1Xps5g,JGZbS1Xps5g,JGZbS1Xps5g,HsTpH1gBffM,Q-8I-uMUMYA,qxSzWseraQQ,Q-8I-uMUMYA,nerAX4VUzNk,Q-8I-uMUMYA,pHK4XUjBLJ8,Q-8I-uMUMYA,OtRjMVcQ2Rw,Q-8I-uMUMYA,Y_hORvIy45o,Q-8I-uMUMYA,GFT0u_Fa0l8,GFT0u_Fa0l8,GFT0u_Fa0l8,t35fwDbZyiQ,Q-8I-uMUMYA,SdQGv1yk72U,SdQGv1yk72U,SdQGv1yk72U,XRBb17aWENc,Q-8I-uMUMYA,wcmzSWj8ZNM,Q-8I-uMUMYA,9MAPOxdsUAw,Q-8I-uMUMYA,Y59nj9TICB8,Q-8I-uMUMYA,ZtXOvo4RwN4,Q-8I-uMUMYA,q7KSoirGDKI,Q-8I-uMUMYA,1RoZgb6vyBU,1RoZgb6vyBU,1RoZgb6vyBU,yB6vJCGJcrU,Q-8I-uMUMYA,O_O6Mx732h4,Q-8I-uMUMYA,ceNbPWbPmrk,Q-8I-uMUMYA,1RoZgb6vyBU,Q-8I-uMUMYA,7gqTBZkI1WU,Q-8I-uMUMYA,1RoZgb6vyBU,Q-8I-uMUMYA,gMtjvxFFMEA,gMtjvxFFMEA,gMtjvxFFMEA,3Bk_4S4fr7A,Q-8I-uMUMYA,XMdqKpOYTHA,Q-8I-uMUMYA,XzWtvDWcXT4,Q-8I-uMUMYA,1fBOatf7zr0,Q-8I-uMUMYA,RPNvUbJPnvM,Q-8I-uMUMYA,44dvSB31mds,Q-8I-uMUMYA,PYYAjEfu7dM,PYYAjEfu7dM,PYYAjEfu7dM,J4JZY2Ia2xM,Q-8I-uMUMYA,DTHHxypdc8Q,Q-8I-uMUMYA,nerAX4VUzNk,Q-8I-uMUMYA,5KPYbzW6dTw,5KPYbzW6dTw,5KPYbzW6dTw,hGqNEeYeMW4,Q-8I-uMUMYA,EvOlhNlCEfs,Q-8I-uMUMYA,mZjgT99M9ns,Q-8I-uMUMYA,KVBbfefCaYw,Q-8I-uMUMYA,dD3iAF6bOcg,Q-8I-uMUMYA,sqcLxV7UYf8,Q-8I-uMUMYA,C5X3XNhAcEM,C5X3XNhAcEM,C5X3XNhAcEM,ZudZFdRJFTU,Q-8I-uMUMYA,0e1CqWLg4NQ,Q-8I-uMUMYA,JGZbS1Xps5g,Q-8I-uMUMYA,WDXy9tn1_Qg,Q-8I-uMUMYA,uR4uhf0o0Mk,Q-8I-uMUMYA,sqcLxV7UYf8,Q-8I-uMUMYA,tMD8dADngGY,tMD8dADngGY,tMD8dADngGY,kZSGion29eo,Q-8I-uMUMYA,NTotj6foXYc,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,po3SMpTUHow,Q-8I-uMUMYA,53qGin0_oOs,Q-8I-uMUMYA,4hoixvDtWUU,Q-8I-uMUMYA,Du4gu40upNw,Du4gu40upNw,Du4gu40upNw,QAjt9liE_a4,Q-8I-uMUMYA,jy_uFRsyaD8,Q-8I-uMUMYA,R4Q1cNbNKU0,Q-8I-uMUMYA,BR0mUnPOrNk,Q-8I-uMUMYA,OKmXet1mGoY,Q-8I-uMUMYA,n2K8o3L5Vkk,Q-8I-uMUMYA,aXLbVZtJIe8,aXLbVZtJIe8,aXLbVZtJIe8,P9u2BkJamhg,Q-8I-uMUMYA,ogMOoVCSvco,Q-8I-uMUMYA,vNTSrcgVMlM,Q-8I-uMUMYA,CjC_Qj21dFA,Q-8I-uMUMYA,mB6PXvixSRk,Q-8I-uMUMYA,sKcDNHzLIZ8,Q-8I-uMUMYA,1JRauSMWBww,1JRauSMWBww,1JRauSMWBww,v1tjz6l7TGQ,v1tjz6l7TGQ,v1tjz6l7TGQ,mXebVgpyeEE,Q-8I-uMUMYA,PtA2EEW_K1o,Q-8I-uMUMYA,98ItexLz_tc,Q-8I-uMUMYA,zMXwa3IaY6Q,Q-8I-uMUMYA,5k8KuTNoJ8M,Q-8I-uMUMYA,lfJzUF2VujM,Q-8I-uMUMYA,OKmXet1mGoY,OKmXet1mGoY,OKmXet1mGoY,bJ87T0krCzI,Q-8I-uMUMYA,CSgYEXM_Ibk,Q-8I-uMUMYA,4NNIn0HGnzs,Q-8I-uMUMYA,olV0Z7BJ3XE,Q-8I-uMUMYA,IvbdQ5TPBuU,Q-8I-uMUMYA,CSgYEXM_Ibk,Q-8I-uMUMYA,8DXCPz27VRY,8DXCPz27VRY,8DXCPz27VRY,cOm7mYpVlOk,Q-8I-uMUMYA,D9EOuLkiTcA,Q-8I-uMUMYA,JFYndtWLKKY,Q-8I-uMUMYA,RZoVZaHwJcc,Q-8I-uMUMYA,ppwn1458dW4,Q-8I-uMUMYA,H_lUNb7_7ts,Q-8I-uMUMYA,OMs15LULCBc,OMs15LULCBc,OMs15LULCBc,OMs15LULCBc,Q-8I-uMUMYA</t>
-  </si>
-  <si>
-    <t>46,46,46,404,5,568,5,133,5,786,5,14213,5,757,5,2949,2949,2949,168,5,426,5,1485,5,104,5,523,5,1009,5,479,479,479,1134,5,140,5,200,5,31,5,1050,5,887,5,193,193,193,1849,5,515,5,589,5,637,5,1489,5,37,5,1553,1553,1553,4902,5,60,5,479,5,81,5,1111,5,9,5,484,484,484,173,5,536,5,681,5,311,5,151,5,804,5,192,192,192,317,5,165,5,531,5,1255,5,310,5,54,5,260,260,260,447,5,1212,5,173,5,4,5,4262,5,36,5,139,139,139,258,5,127,5,359,5,862,5,812,5,1815,5,416,416,416,28,5,2341,5,792,5,1956,5,81,5,200,5,81,81,81,127,5,514,5,246,5,701,5,500,5,32,5,775,775,775,90,5,40,5,138,5,210,5,29,5,48,5,1509,1509,1509,500,5,143,5,7,5,195,5,497,5,725,5,61,61,61,104,5,1426,5,994,5,3700,5,118,5,220,5,53,53,53,169,5,6,5,383,5,277,5,635,5,45,5,44,44,44,468,5,889,5,74,5,204,5,50,5,236,5,186,186,186,592,5,252,5,706,5,101,5,210,5,1144,5,357,357,357,260,5,548,5,121,5,165,5,783,5,1787,5,125,125,125,35,5,441,5,1155,5,294,5,461,5,5064,5,330,330,330,441,5,50,5,713,5,1416,5,415,5,958,5,962,962,962,3956,5,3952,5,42,5,36,5,7,5,1109,5,417,417,417,1334,5,286,5,433,5,81,5,353,5,125,5,15551,15551,15551,2480,5,483,5,154,5,920,5,385,5,375,5,59,59,59,1043,5,221,5,538,5,87,5,365,5,343,5,386,386,386,10919,5,3234,5,371,5,2559,5,524,5,14655,5,17024,17024,17024,2525,5,981,5,3905,5,3,5,78,5,34,5,1526,1526,1526,456,5,9,5,5780,5,55,5,160,5,241,5,249,249,249,695,5,6,5,346,5,216,5,374,5,58,5,132,132,132,735,5,2403,5,2642,5,3922,5,75,5,85,5,11988,11988,11988,290,5,474,5,7029,5,4248,5,105,5,16,5,266,266,266,219,5,142,5,2830,5,34,5,507,5,622,5,422,422,422,38,5,1026,5,105,5,1893,5,409,5,263,5,460,460,460,179,5,679,5,722,5,991,5,2090,5,1117,5,58,58,58,85,5,1177,5,834,5,141,5,249,5,689,5,15,15,15,4167,5,0,0,0,2387,5,849,5,493,5,483,5,39,5,355,5,3418,3418,3418,82,5,225,5,11,5,3234,5,89,5,3465,5,11,11,11,390,5,268,5,83,5,158,5,232,5,2435,5,1075,1075,1075,171,5,353,5,628,5,45,45,45,439,5,855,5,515,5,87,5,304,5,256,5,583,583,583,135,5,499,5,212,5,171,5,222,5,970,5,4,4,4,114,5,4,5,15157,5,795,5,4,5,665,5,759,759,759,268,5,165,5,6708,5,18,5,279,5,363,5,635,635,635,2573,5,488,5,1760,5,318,5,487,5,1035,5,2028,2028,2028,2359,2359,2359,17,5,45,5,574,5,286,5,625,5,41,5,1093,1093,1093,506,5,1078,5,94,5,2093,5,168,5,955,5,175,175,175,615,5,136,5,142,5,477,5,290,5,57,5,96,96,96,719,5</t>
-  </si>
-  <si>
-    <t>48,48,48,406,9,571,9,135,9,789,9,14214,9,759,9,2951,2951,2951,170,9,428,9,1488,9,105,9,525,9,1011,9,481,481,481,1136,9,141,9,202,9,33,9,1052,9,889,9,195,195,195,1852,9,517,9,591,9,639,9,1492,9,39,9,1555,1555,1555,4904,9,62,9,481,9,83,9,1113,9,11,9,487,487,487,176,9,538,9,683,9,313,9,153,9,806,9,194,194,194,319,9,168,9,534,9,1257,9,313,9,56,9,262,262,262,449,9,1214,9,177,10,6,9,4264,9,38,9,141,141,141,260,9,129,9,361,9,864,9,814,9,1816,9,418,418,418,30,9,2344,9,795,9,1959,9,83,9,202,9,84,84,84,129,9,516,9,247,9,703,9,502,9,34,9,777,777,777,93,9,42,9,140,9,212,9,32,9,50,9,1511,1511,1511,502,9,145,9,10,9,197,9,499,9,727,9,63,63,63,106,9,1428,9,996,9,3702,9,120,9,222,9,55,55,55,171,9,8,9,385,9,279,9,637,9,47,9,46,46,46,470,9,890,9,76,9,207,9,53,9,238,9,188,188,188,594,9,254,9,708,9,103,9,211,9,1146,9,360,360,360,262,9,550,9,123,9,167,9,786,9,1789,9,127,127,127,37,9,443,9,1157,9,295,9,463,9,5066,9,332,332,332,443,9,52,9,715,9,1418,9,418,9,960,9,964,964,964,3958,9,3954,9,44,9,37,9,10,9,1111,9,420,420,420,1336,9,288,9,436,9,84,9,355,9,127,9,15553,15553,15553,2482,9,486,9,156,9,921,9,387,9,378,9,61,61,61,1045,9,223,9,540,9,89,9,367,9,344,9,388,388,388,10921,9,3236,9,374,9,2562,9,528,10,14657,9,17026,17026,17026,2528,9,983,9,3907,9,4,9,80,9,36,9,1529,1529,1529,459,9,11,9,5784,10,57,9,162,9,243,9,252,252,252,697,9,7,9,348,9,218,9,376,9,60,9,134,134,134,737,9,2405,9,2644,9,3924,9,77,9,87,9,11990,11990,11990,292,9,476,9,7031,9,4250,9,106,9,18,9,268,268,268,222,9,144,9,2832,9,36,9,509,9,623,9,424,424,424,40,9,1028,9,107,9,1895,9,411,9,264,9,462,462,462,181,9,681,9,724,9,993,9,2092,9,1119,9,60,60,60,88,9,1179,9,836,9,143,9,251,9,692,9,18,18,18,4169,9,2,2,2,2389,9,851,9,495,9,485,9,41,9,357,9,3419,3419,3419,85,9,227,9,13,9,3236,9,94,11,3467,9,13,13,13,391,9,270,9,86,9,160,9,235,9,2437,9,1077,1077,1077,173,9,356,9,631,9,47,47,47,440,9,857,9,518,9,89,9,306,9,259,9,585,585,585,137,9,501,9,214,9,174,9,225,9,973,9,6,6,6,116,9,6,9,15158,9,797,9,6,9,667,9,762,762,762,269,9,167,9,6711,9,19,9,281,9,367,10,638,638,638,2576,9,490,9,1762,9,320,9,489,9,1037,9,2030,2030,2030,2361,2361,2361,19,9,47,9,576,9,288,9,628,9,43,9,1095,1095,1095,508,9,1080,9,97,9,2095,9,171,9,956,9,177,177,177,617,9,138,9,144,9,478,9,292,9,59,9,98,98,98,722,9</t>
+    <t>37ahQpO7mws,4801ABdopmI,TaPWhOw038I,6g6ZsyaJs8Q,hXfIsonV2WY,Z0wT2Vov97s,4801ABdopmI,Z0wT2Vov97s,Q-8I-uMUMYA,Z0wT2Vov97s,Q-8I-uMUMYA,Z0wT2Vov97s,Q-8I-uMUMYA,Y59nj9TICB8,hkYSfO501h0,4AZT3l8SsjI,8K6K760nktU,UGpo5U4wfOc,Ewyhf2C7Z50,nGQuHHLJaOo,Y59nj9TICB8,Q-8I-uMUMYA,Y59nj9TICB8,Q-8I-uMUMYA,Y59nj9TICB8,Q-8I-uMUMYA,eUeLIPgef2A,U3g1254ZAAA,u_XvorVLvjI,m2fxy_C_fMg,dQsBFVd2ZEs,X2aaEnkr2gY,CpwQenzS3x4,dQsBFVd2ZEs,Q-8I-uMUMYA,dQsBFVd2ZEs,Q-8I-uMUMYA,dQsBFVd2ZEs,Q-8I-uMUMYA,pxn3zrknza4,MSgRH6zIf9I,wYZky3Yo7aw,DniD4L9cACc,U4HIBDuiM1Y,CnKgkrJ0aGg,1C0rdFNasW8,1C0rdFNasW8,Q-8I-uMUMYA,1C0rdFNasW8,Q-8I-uMUMYA,1C0rdFNasW8,Q-8I-uMUMYA,CFcRP5pbVcU,vUwq1FaXwEQ,qMRttHiPiLs,88DEIY89icg,gvjlrui6JJg,F1SEnA2wfCM,kXkTOAqR7NQ,88DEIY89icg,Q-8I-uMUMYA,88DEIY89icg,Q-8I-uMUMYA,88DEIY89icg,Q-8I-uMUMYA,8NAeIlXH7Ig,rqxInxrDJu0,QUTjogd2lOU,iJb2QNlOkpY,L0rgJvLqLKs,biRQ3PONAsY,wA__k9WE3zI,iJb2QNlOkpY,Q-8I-uMUMYA,iJb2QNlOkpY,Q-8I-uMUMYA,iJb2QNlOkpY,Q-8I-uMUMYA,w7wD0IPQqhg,Y2u22naXMJU,PoKixTm1NZc,k24PNJJ1BPo,wqAziYhui4I,9HLsuysRI9k,GgxTyeBgUrw,GgxTyeBgUrw,Q-8I-uMUMYA,GgxTyeBgUrw,Q-8I-uMUMYA,GgxTyeBgUrw,Q-8I-uMUMYA,yJuv9Eozp5A,PZRH71eCet0,yqD5ixgnKqI,7gqTBZkI1WU,QAjt9liE_a4,k1up2KLkuaM,dhNlAjkLfI4,dhNlAjkLfI4,Q-8I-uMUMYA,dhNlAjkLfI4,Q-8I-uMUMYA,dhNlAjkLfI4,Q-8I-uMUMYA,YEhynbYjm84,V2yVCi7fzsg,X16mu_j1f_A,KXYcgeiSyAo,3TI4Ce_ckO0,TrvrF62uxZQ,eUmaumYRtOE,X16mu_j1f_A,Q-8I-uMUMYA,X16mu_j1f_A,Q-8I-uMUMYA,X16mu_j1f_A,Q-8I-uMUMYA,0d1pMkRjV1k,6KVvJ7qSBvM,t35fwDbZyiQ,XXYfgPWTy9E,0ArfVe66RNE,GXQXMv1SRlE,OdndAvGx2AI,t35fwDbZyiQ,Q-8I-uMUMYA,t35fwDbZyiQ,Q-8I-uMUMYA,t35fwDbZyiQ,Q-8I-uMUMYA,pthYiWTknKM,IAyQeJ57A0s,0f2WmZuMNGY,atTtYnTJvZo,CSgYEXM_Ibk,PFoVpzQdnlU,sONZhl65sB0,PFoVpzQdnlU,Q-8I-uMUMYA,PFoVpzQdnlU,Q-8I-uMUMYA,PFoVpzQdnlU,Q-8I-uMUMYA,YJXDxDJ0lbU,ldFpIdQPQb4,XhcjYIknnfA,LEJ94Id9x5c,SNdOUYEkr9Y,j6ePM4wI5vI,bb2i7Xgb3Kk,ldFpIdQPQb4,Q-8I-uMUMYA,ldFpIdQPQb4,Q-8I-uMUMYA,ldFpIdQPQb4,Q-8I-uMUMYA,YHmLcRqQ2sw,rz9FVAHXNtU,bJ87T0krCzI,5DVopo30jf8,ZtXOvo4RwN4,RnonPD87HxI,ImoHd_JGqN8,YHmLcRqQ2sw,Q-8I-uMUMYA,YHmLcRqQ2sw,Q-8I-uMUMYA,YHmLcRqQ2sw,Q-8I-uMUMYA,2D7QdIWLj8M,B2cCnRVFU9g,C48kH8F_E1s,k1up2KLkuaM,P3yPuwFG20M,rpduz0gCxuY,KFkJCia8L5M,rpduz0gCxuY,Q-8I-uMUMYA,rpduz0gCxuY,Q-8I-uMUMYA,rpduz0gCxuY,Q-8I-uMUMYA,Ww0_UKxDHsk,qxSzWseraQQ,J63OIhyV6T0,zVSJfmUNjSI,JP_NBkvkwcg,a5tAiFe2C0w,1nVXVqNu_uQ,1nVXVqNu_uQ,Q-8I-uMUMYA,1nVXVqNu_uQ,Q-8I-uMUMYA,1nVXVqNu_uQ,Q-8I-uMUMYA,mM0ic1iVOVk,biRQ3PONAsY,6g6ZsyaJs8Q,5Xw_0BqK8so,_ENtNZch1eQ,C7W93fQocYI,ajIcl3cKWiU,C7W93fQocYI,Q-8I-uMUMYA,C7W93fQocYI,Q-8I-uMUMYA,C7W93fQocYI,Q-8I-uMUMYA,aZ9fZ28N9eY,wro74ypSW60,_2LZo6dC6u8,CvaRY68rtVQ,jgdqXlImVFs,9MAPOxdsUAw,We_B3W2hn6U,CvaRY68rtVQ,Q-8I-uMUMYA,CvaRY68rtVQ,Q-8I-uMUMYA,CvaRY68rtVQ,Q-8I-uMUMYA,M7ROOKqquqs,UbIX71sXnSY,j4pZ3fbVnyA,ZFf0M63bCwk,rfWvIUgaHnU,UbIX71sXnSY,UbIX71sXnSY,M7ROOKqquqs,Q-8I-uMUMYA,M7ROOKqquqs,Q-8I-uMUMYA,M7ROOKqquqs,Q-8I-uMUMYA,vtdusOCop30,KxDLzZ8RVkk,WATm6W2P36Y,0GQSpGcVJPk,XjxvYViuRQs,w7wD0IPQqhg,1KaoCu5SII8,KxDLzZ8RVkk,Q-8I-uMUMYA,KxDLzZ8RVkk,Q-8I-uMUMYA,KxDLzZ8RVkk,Q-8I-uMUMYA,5LBbUvS_5Bc,Gj1X8jth_Bw,gnhvQsHekNU,ReoJnVK_IPU,3dvvOo9u7PY,i7zdY_p_MOk,6sXgJSQJxJo,6sXgJSQJxJo,Q-8I-uMUMYA,6sXgJSQJxJo,Q-8I-uMUMYA,6sXgJSQJxJo,Q-8I-uMUMYA,J5Ges1rKAjg,1RoZgb6vyBU,0KhpVgQptUg,fnyoAFb8Fcw,FACv4_cIyk4,Z0wT2Vov97s,ZIwF9egblXw,0KhpVgQptUg,Q-8I-uMUMYA,0KhpVgQptUg,Q-8I-uMUMYA,0KhpVgQptUg,Q-8I-uMUMYA,iEhHFxcmZXs,UpOdAkB659A,tSD5_mwRyik,AYMZR9K1DNI,RZQqFJleCn0,g0cWhhXHEJI,buFr1dEcM2o,tSD5_mwRyik,Q-8I-uMUMYA,tSD5_mwRyik,Q-8I-uMUMYA,tSD5_mwRyik,Q-8I-uMUMYA,UmxQ2CNKOUE,0GQSpGcVJPk,t0zfyLmzcy4,k1up2KLkuaM,OZYwsdRH2Qg,vwUaEiSxeko,VCYgND4HqkU,OZYwsdRH2Qg,Q-8I-uMUMYA,OZYwsdRH2Qg,Q-8I-uMUMYA,OZYwsdRH2Qg,Q-8I-uMUMYA,lfJzUF2VujM,atp09m_YbQk,_UbazGVQk8U,5QhC0EVFVUc,kIuelFqmkC0,eUmaumYRtOE,ZWsp0zoZJCM,atp09m_YbQk,Q-8I-uMUMYA,atp09m_YbQk,Q-8I-uMUMYA,atp09m_YbQk,Q-8I-uMUMYA,hx_YcOUrtPk,JRhFqrIDklA,9uOFhXkzEQQ,mdNyTqKmEMs,QAjt9liE_a4,aAyLpAWcfSs,JRhFqrIDklA,JRhFqrIDklA,Q-8I-uMUMYA,JRhFqrIDklA,Q-8I-uMUMYA,JRhFqrIDklA,Q-8I-uMUMYA,YcVQzL_nBWo,mdNyTqKmEMs,g0cWhhXHEJI,F0uYZ4uI47w,rE9oGmirdbU,IIpCTf5UAMA,KAILkO7WKS0,KAILkO7WKS0,Q-8I-uMUMYA,KAILkO7WKS0,Q-8I-uMUMYA,KAILkO7WKS0,Q-8I-uMUMYA,iJb2QNlOkpY,eDPRvGTgSto,dKulgkMlEqY,6qcOhaA1UZM,xqiQ_4a_Xio,N3zGec15w58,N_Cn_DbIyzw,6qcOhaA1UZM,Q-8I-uMUMYA,6qcOhaA1UZM,Q-8I-uMUMYA,6qcOhaA1UZM,Q-8I-uMUMYA,loL9z89lf28,KFlWdjC9rrg,6g6ZsyaJs8Q,Vi02nG18UxU,ofN8LG1fmWY,KFlWdjC9rrg,KFlWdjC9rrg,KFlWdjC9rrg,Q-8I-uMUMYA,KFlWdjC9rrg,Q-8I-uMUMYA,KFlWdjC9rrg,Q-8I-uMUMYA,2jJpH_oogdE,wtZp0aNWbXQ,Q_R5azC1xUI,PMk6cys0bhE,bXJsYZRGyzc,wcmzSWj8ZNM,J5Ges1rKAjg,bXJsYZRGyzc,Q-8I-uMUMYA,bXJsYZRGyzc,Q-8I-uMUMYA,bXJsYZRGyzc,Q-8I-uMUMYA,EnSZyvxgPqA,Rep_IL5SvPk,R4Q1cNbNKU0,IAyQeJ57A0s,_c03Qw4r7Po,MqSBJyEvPiA,cOm7mYpVlOk,MqSBJyEvPiA,Q-8I-uMUMYA,MqSBJyEvPiA,Q-8I-uMUMYA,MqSBJyEvPiA,Q-8I-uMUMYA,Q-8I-uMUMYA,Q-8I-uMUMYA,Q-8I-uMUMYA,kwGCNTh9vew,QkuLkPf5jDM,jWK27FdHDnw,COlIItbPopY,zlBTmitsCxM,ZdTYf27SnNA,4GLFDr8O9bI,COlIItbPopY,Q-8I-uMUMYA,COlIItbPopY,Q-8I-uMUMYA,COlIItbPopY,Q-8I-uMUMYA,5WnYi7RGvks,LdYabJ7aPec,GAfA30xCKfc,9uOFhXkzEQQ,UBrFC9e5zlo,R4Q1cNbNKU0,LZm96OOfUh8,GAfA30xCKfc,Q-8I-uMUMYA,GAfA30xCKfc,Q-8I-uMUMYA,GAfA30xCKfc,Q-8I-uMUMYA,JRhFqrIDklA,fnyoAFb8Fcw,ElUklbTUsL8,8yakYKn5y5o,8rOBRgUbyTo,MPMnlo3KAF4,NavSWHwhBSA,8rOBRgUbyTo,Q-8I-uMUMYA,8rOBRgUbyTo,Q-8I-uMUMYA,8rOBRgUbyTo,Q-8I-uMUMYA,DJhSzb7Zw54,2sUkBwRUiKU,OtRjMVcQ2Rw,mc6qQktatQY,IZ63ox6sO24,qxSzWseraQQ,nqEPS1Wle48,OtRjMVcQ2Rw,Q-8I-uMUMYA,OtRjMVcQ2Rw,Q-8I-uMUMYA,OtRjMVcQ2Rw,Q-8I-uMUMYA,GFT0u_Fa0l8,t35fwDbZyiQ,t35fwDbZyiQ,Q-8I-uMUMYA,t35fwDbZyiQ,Q-8I-uMUMYA,t35fwDbZyiQ,Q-8I-uMUMYA,SdQGv1yk72U,Y59nj9TICB8,9MAPOxdsUAw,XRBb17aWENc,q7KSoirGDKI,ZtXOvo4RwN4,wcmzSWj8ZNM,Y59nj9TICB8,Q-8I-uMUMYA,Y59nj9TICB8,Q-8I-uMUMYA,Y59nj9TICB8,Q-8I-uMUMYA,1RoZgb6vyBU,1RoZgb6vyBU,1RoZgb6vyBU,3c8wWyTRLk4,31gcY4zgSXU,EqqeOBb6F3s,f5Vlt2l7Blw,31gcY4zgSXU,Q-8I-uMUMYA,31gcY4zgSXU,Q-8I-uMUMYA,31gcY4zgSXU,Q-8I-uMUMYA,gMtjvxFFMEA,zl9D_kyTzrA,1fBOatf7zr0,XzWtvDWcXT4,3Bk_4S4fr7A,UUZjlg5net4,RPNvUbJPnvM,RPNvUbJPnvM,Q-8I-uMUMYA,RPNvUbJPnvM,Q-8I-uMUMYA,RPNvUbJPnvM,Q-8I-uMUMYA,PYYAjEfu7dM,J4JZY2Ia2xM,DTHHxypdc8Q,nerAX4VUzNk,PYYAjEfu7dM,Q-8I-uMUMYA,PYYAjEfu7dM,Q-8I-uMUMYA,PYYAjEfu7dM,Q-8I-uMUMYA,hx_YcOUrtPk,sqcLxV7UYf8,EvOlhNlCEfs,iIdpeR6GxTo,VLuXEZxxMjM,AYMZR9K1DNI,KVBbfefCaYw,iIdpeR6GxTo,Q-8I-uMUMYA,iIdpeR6GxTo,Q-8I-uMUMYA,iIdpeR6GxTo,Q-8I-uMUMYA,sqcLxV7UYf8,uR4uhf0o0Mk,JGZbS1Xps5g,bXJsYZRGyzc,C5X3XNhAcEM,0e1CqWLg4NQ,bXJsYZRGyzc,bXJsYZRGyzc,Q-8I-uMUMYA,bXJsYZRGyzc,Q-8I-uMUMYA,bXJsYZRGyzc,Q-8I-uMUMYA,oD0FDG7YgMs,bvdFu6nTXeg,WlJ12LESGP0,_c03Qw4r7Po,4_MyW9l5bC0,OPIgxnSYfgQ,HJ0Kwajgigo,oD0FDG7YgMs,Q-8I-uMUMYA,oD0FDG7YgMs,Q-8I-uMUMYA,oD0FDG7YgMs,Q-8I-uMUMYA,bb2i7Xgb3Kk,8JhNbK9Kk08,uyw882Ch6mI,juLvZpWOBwk,xDSbzVXrNxg,2mTUagppxTg,bb2i7Xgb3Kk,uyw882Ch6mI,Q-8I-uMUMYA,uyw882Ch6mI,Q-8I-uMUMYA,uyw882Ch6mI,Q-8I-uMUMYA,mc6qQktatQY,sKcDNHzLIZ8,acVRitTW2fU,cOtHAQomfSE,37RqLFakmo0,rlBRkqCf_Uc,IR4DpXisu_g,mc6qQktatQY,Q-8I-uMUMYA,mc6qQktatQY,Q-8I-uMUMYA,mc6qQktatQY,Q-8I-uMUMYA,1JRauSMWBww,1JRauSMWBww,Q-8I-uMUMYA,1JRauSMWBww,Q-8I-uMUMYA,1JRauSMWBww,Q-8I-uMUMYA,BHfZRmk3n6w,6aZHsfF1kVw,zMXwa3IaY6Q,4AZT3l8SsjI,m2fxy_C_fMg,yiRZOxXk5ls,xYM46k4NNzs,yiRZOxXk5ls,Q-8I-uMUMYA,yiRZOxXk5ls,Q-8I-uMUMYA,yiRZOxXk5ls,Q-8I-uMUMYA,4NNIn0HGnzs,b35JWG1DHIM,CSgYEXM_Ibk,bJ87T0krCzI,CSgYEXM_Ibk,zlBTmitsCxM,olV0Z7BJ3XE,CSgYEXM_Ibk,Q-8I-uMUMYA,CSgYEXM_Ibk,Q-8I-uMUMYA,CSgYEXM_Ibk,Q-8I-uMUMYA,EWevHFe665Y,bsFCzDYta3A,BwdY0O3SrL0,oA8MTo1YeWM,JFYndtWLKKY,8DXCPz27VRY,JFYndtWLKKY,BwdY0O3SrL0,Q-8I-uMUMYA,BwdY0O3SrL0,Q-8I-uMUMYA,BwdY0O3SrL0,Q-8I-uMUMYA,OMs15LULCBc,OMs15LULCBc,OMs15LULCBc,Q-8I-uMUMYA,OMs15LULCBc,Q-8I-uMUMYA,OMs15LULCBc,Q-8I-uMUMYA</t>
+  </si>
+  <si>
+    <t>1141,691,40,133,1420,3841,87,3841,5,3841,5,3841,5,58,762,719,176,381,996,92,58,5,58,5,58,5,1614,198,166,260,403,44,265,403,5,403,5,403,5,315,13,22,712,332,1073,584,584,5,584,5,584,5,67,762,2200,784,83,41,796,784,5,784,5,784,5,149,419,262,1066,921,232,276,1066,5,1066,5,1066,5,1349,279,556,79,461,105,744,744,5,744,5,744,5,249,32,444,869,400,2593,198,198,5,198,5,198,5,281,987,185,260,2920,96,2371,185,5,185,5,185,5,706,421,4183,505,1468,137,533,4183,5,4183,5,4183,5,91,888,1625,448,868,1243,605,1243,5,1243,5,1243,5,437,542,112,60,976,103,1266,542,5,542,5,542,5,579,870,500,143,258,497,1509,579,5,579,5,579,5,572,66,134,4348,742,805,546,805,5,805,5,805,5,460,851,68,485,398,277,344,344,5,344,5,344,5,42,236,2004,126,44,329,72,329,5,329,5,329,5,97,592,1144,24,157,1271,639,24,5,24,5,24,5,260,548,165,357,202,1787,544,260,5,260,5,260,5,544,586,603,372,532,1349,89,586,5,586,5,586,5,612,78,637,50,330,771,480,480,5,480,5,480,5,53,3952,386,1105,401,106,235,386,5,386,5,386,5,1096,472,713,60,760,240,340,713,5,713,5,713,5,441,130,196,3549,2198,1808,29,2198,5,2198,5,2198,5,593,79,91,59,278,1687,974,79,5,79,5,79,5,48,8656,3266,15181,5690,163,8442,8442,5,8442,5,8442,5,11,981,1243,3905,948,254,174,174,5,174,5,174,5,216,49,55,12,122,160,9,12,5,12,5,12,5,58,202,695,346,787,374,175,175,5,175,5,175,5,6,3888,1185,189,139,1397,419,139,5,139,5,139,5,1054,508,5536,3295,269,502,15,502,5,502,5,502,5,5,5,5,1149,649,266,1189,186,210,397,1189,5,1189,5,1189,5,291,1152,28,17712,462,7055,268,28,5,28,5,28,5,2090,207,100,525,538,140,1710,538,5,538,5,538,5,1055,435,249,224,1700,1177,285,249,5,249,5,249,5,15,4167,4167,5,4167,5,4167,5,0,483,493,2387,355,39,849,483,5,483,5,483,5,4084,3418,3267,630,204,461,358,204,5,204,5,204,5,11,17,158,83,390,1369,232,232,5,232,5,232,5,1075,171,353,628,1075,5,1075,5,1075,5,263,256,855,189,11,416,87,189,5,189,5,189,5,970,222,212,232,583,499,226,232,5,232,5,232,5,180,1653,2263,209,4,188,515,180,5,180,5,180,5,1329,533,711,110,493,1065,517,711,5,711,5,711,5,226,1028,1722,749,5315,284,423,226,5,226,5,226,5,2028,2028,5,2028,5,2028,5,958,726,286,103,863,13,59,13,5,13,5,13,5,94,57,16,506,692,639,2093,16,5,16,5,16,5,353,9,340,161,117,175,142,340,5,340,5,340,5,96,719,96,5,96,5,96,5</t>
+  </si>
+  <si>
+    <t>1144,693,42,135,1422,3843,89,3843,9,3843,9,3843,9,60,764,721,177,383,998,94,60,9,60,9,60,9,1616,203,168,262,405,46,267,405,9,405,9,405,9,317,14,25,714,334,1075,586,586,9,586,9,586,9,69,764,2202,786,84,44,798,786,9,786,9,786,9,151,421,266,1068,924,234,278,1068,9,1068,9,1068,9,1351,280,558,81,463,107,746,746,9,746,9,746,9,251,34,446,871,402,2595,201,201,9,201,9,201,9,283,989,187,262,2922,98,2373,187,9,187,9,187,9,709,423,4185,507,1470,138,535,4185,9,4185,9,4185,9,92,890,1627,450,870,1244,608,1244,9,1244,9,1244,9,439,544,115,62,978,105,1268,544,9,544,9,544,9,581,872,502,145,261,499,1511,581,9,581,9,581,9,574,68,139,4351,744,807,548,807,9,807,9,807,9,464,853,70,487,400,279,346,346,9,346,9,346,9,44,238,2008,128,46,330,74,330,9,330,9,330,9,100,594,1146,26,159,1273,641,26,9,26,9,26,9,262,550,167,360,204,1789,547,262,9,262,9,262,9,546,589,605,374,534,1351,91,589,9,589,9,589,9,614,79,639,52,332,773,482,482,9,482,9,482,9,55,3954,390,1107,403,109,237,390,10,390,10,390,10,1097,474,715,62,762,242,344,715,9,715,9,715,9,443,132,198,3551,2200,1810,31,2200,9,2200,9,2200,9,595,81,93,61,280,1689,975,81,9,81,9,81,9,50,8657,3268,15183,5692,165,8443,8443,9,8443,9,8443,9,13,983,1245,3907,951,257,176,176,9,176,9,176,9,219,53,57,15,124,162,11,15,9,15,9,15,9,60,204,697,348,789,376,178,178,9,178,9,178,9,9,3890,1188,191,141,1398,421,141,9,141,9,141,9,1055,510,5538,3297,271,504,17,504,9,504,9,504,9,9,9,9,1151,651,268,1191,188,213,399,1191,9,1191,9,1191,9,293,1155,30,17714,464,7057,270,30,9,30,9,30,9,2092,209,102,528,539,142,1712,539,9,539,9,539,9,1057,437,251,226,1702,1179,288,251,9,251,9,251,9,18,4169,4169,9,4169,9,4169,9,2,485,495,2389,357,41,851,485,9,485,9,485,9,4087,3419,3269,632,206,462,360,206,9,206,9,206,9,13,19,160,86,391,1371,235,235,9,235,9,235,9,1077,173,356,631,1077,9,1077,9,1077,9,265,259,857,190,13,418,89,190,9,190,9,190,9,973,225,214,235,585,501,229,235,9,235,9,235,9,183,1655,2265,211,6,190,517,183,9,183,9,183,9,1331,535,713,112,495,1068,519,713,9,713,9,713,9,228,1030,1724,751,5317,286,425,228,9,228,9,228,9,2030,2030,9,2030,9,2030,9,960,728,288,105,865,15,61,15,9,15,9,15,9,97,58,18,508,694,641,2095,18,9,18,9,18,9,355,11,341,163,119,177,144,341,9,341,9,341,9,98,722,98,9,98,9,98,9</t>
   </si>
 </sst>
 </file>
